--- a/data/case1/11/details_3.xlsx
+++ b/data/case1/11/details_3.xlsx
@@ -59,10 +59,10 @@
     <col min="1" max="1" width="2.140625" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
     <col min="3" max="3" width="3.140625" customWidth="true"/>
-    <col min="4" max="4" width="2.140625" customWidth="true"/>
-    <col min="5" max="5" width="3.140625" customWidth="true"/>
+    <col min="4" max="4" width="3.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
     <col min="6" max="6" width="3.140625" customWidth="true"/>
-    <col min="7" max="7" width="3.140625" customWidth="true"/>
+    <col min="7" max="7" width="2.140625" customWidth="true"/>
     <col min="8" max="8" width="3.140625" customWidth="true"/>
     <col min="9" max="9" width="3.140625" customWidth="true"/>
     <col min="10" max="10" width="3.140625" customWidth="true"/>
@@ -72,60 +72,60 @@
     <col min="14" max="14" width="5.7109375" customWidth="true"/>
     <col min="15" max="15" width="5.7109375" customWidth="true"/>
     <col min="16" max="16" width="5.7109375" customWidth="true"/>
-    <col min="17" max="17" width="4.7109375" customWidth="true"/>
+    <col min="17" max="17" width="5.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0">
+        <v>31</v>
+      </c>
+      <c r="D1" s="0">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0">
         <v>3</v>
       </c>
-      <c r="C1" s="0">
-        <v>23</v>
+      <c r="F1" s="0">
+        <v>16</v>
       </c>
-      <c r="D1" s="0">
-        <v>2</v>
+      <c r="G1" s="0">
+        <v>9</v>
       </c>
-      <c r="E1" s="0">
+      <c r="H1" s="0">
+        <v>15</v>
+      </c>
+      <c r="I1" s="0">
         <v>20</v>
       </c>
-      <c r="F1" s="0">
-        <v>12</v>
-      </c>
-      <c r="G1" s="0">
-        <v>17</v>
-      </c>
-      <c r="H1" s="0">
-        <v>31</v>
-      </c>
-      <c r="I1" s="0">
-        <v>19</v>
-      </c>
       <c r="J1" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0">
         <v>33</v>
       </c>
       <c r="M1" s="0">
-        <v>0.070999999999999994</v>
+        <v>0.033000000000000002</v>
       </c>
       <c r="N1" s="0">
-        <v>0.010999999999999999</v>
+        <v>0.048000000000000001</v>
       </c>
       <c r="O1" s="0">
-        <v>0.034000000000000002</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="P1" s="0">
-        <v>0.045999999999999999</v>
+        <v>0.074999999999999997</v>
       </c>
       <c r="Q1" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.020999999999999998</v>
       </c>
     </row>
   </sheetData>
